--- a/Results/Plot data/cumulative_historical_emissions_by_region.xlsx
+++ b/Results/Plot data/cumulative_historical_emissions_by_region.xlsx
@@ -431,13 +431,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>46.2689932192044</v>
+        <v>46.300427072075</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.91952062264396</v>
+        <v>1.92005459154528</v>
       </c>
     </row>
     <row r="3">
@@ -445,13 +445,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>84.6226409102603</v>
+        <v>84.678049001898</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>3.51066433627129</v>
+        <v>3.51155458104295</v>
       </c>
     </row>
     <row r="4">
@@ -459,13 +459,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>252.974216133174</v>
+        <v>253.154975772827</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>10.4949165970456</v>
+        <v>10.4982049700857</v>
       </c>
     </row>
     <row r="5">
@@ -473,13 +473,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>149.135202127612</v>
+        <v>149.231287549219</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>6.18703965936541</v>
+        <v>6.18854375608785</v>
       </c>
     </row>
     <row r="6">
@@ -487,13 +487,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>410.535426675673</v>
+        <v>410.733062585165</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>17.0315185830067</v>
+        <v>17.0328861435436</v>
       </c>
     </row>
     <row r="7">
@@ -501,13 +501,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>39.5839861952144</v>
+        <v>39.6127955010333</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.64218567428501</v>
+        <v>1.64272199406074</v>
       </c>
     </row>
     <row r="8">
@@ -515,13 +515,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>69.7013431992987</v>
+        <v>69.7469431238433</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>2.89163771217537</v>
+        <v>2.89236939829335</v>
       </c>
     </row>
     <row r="9">
@@ -529,13 +529,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>55.4134973325136</v>
+        <v>55.4526506499863</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>2.29889054206689</v>
+        <v>2.29959253568265</v>
       </c>
     </row>
     <row r="10">
@@ -543,13 +543,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>443.131702950077</v>
+        <v>443.356786314215</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>18.3838113427322</v>
+        <v>18.3857749720151</v>
       </c>
     </row>
     <row r="11">
@@ -557,13 +557,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>37.0447449867266</v>
+        <v>37.070726368995</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1.53684242978285</v>
+        <v>1.53730371138707</v>
       </c>
     </row>
     <row r="12">
@@ -571,13 +571,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>59.4543451262294</v>
+        <v>59.4951812289413</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>2.46652960514862</v>
+        <v>2.46723417292936</v>
       </c>
     </row>
     <row r="13">
@@ -591,7 +591,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>4.78776247448213</v>
+        <v>4.78584295877849</v>
       </c>
     </row>
     <row r="14">
@@ -605,7 +605,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="n">
-        <v>0.845862214059565</v>
+        <v>0.845523089925554</v>
       </c>
     </row>
     <row r="15">
@@ -619,7 +619,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="n">
-        <v>1.77710758705621</v>
+        <v>1.7763951068656</v>
       </c>
     </row>
     <row r="16">
@@ -633,7 +633,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="n">
-        <v>2.76796867203186</v>
+        <v>2.76685893457903</v>
       </c>
     </row>
     <row r="17">
@@ -647,7 +647,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.52520653045329</v>
+        <v>0.524995963995945</v>
       </c>
     </row>
     <row r="18">
@@ -661,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>8.41305945928415</v>
+        <v>8.40968648499107</v>
       </c>
     </row>
     <row r="19">
@@ -675,7 +675,7 @@
         <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0611821951523281</v>
+        <v>0.0611576659103274</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         <v>16</v>
       </c>
       <c r="D20" t="n">
-        <v>4.94802496652559</v>
+        <v>4.94604119818372</v>
       </c>
     </row>
     <row r="21">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>6.09148264816507</v>
+        <v>6.0890404433431</v>
       </c>
     </row>
     <row r="22">
@@ -717,7 +717,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="n">
-        <v>1.41878614826587</v>
+        <v>1.41821732675347</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>46.2689932192044</v>
+        <v>46.300427072075</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -761,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>84.6226409102603</v>
+        <v>84.678049001898</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -772,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>252.974216133174</v>
+        <v>253.154975772827</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -783,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>149.135260270532</v>
+        <v>149.231345686853</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -794,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>414.921573575753</v>
+        <v>415.118810780863</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -805,7 +805,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>39.5839861952144</v>
+        <v>39.6127955010333</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -816,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>69.7013431992987</v>
+        <v>69.7469431238433</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -827,7 +827,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>55.4134973325136</v>
+        <v>55.4526506499863</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -838,7 +838,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>443.302394466077</v>
+        <v>443.527462314215</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -849,7 +849,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>37.0447449867266</v>
+        <v>37.070726368995</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -860,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>59.4543451262294</v>
+        <v>59.4951812289413</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -899,13 +899,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>46.2689932192044</v>
+        <v>46.300427072075</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.91952062264396</v>
+        <v>1.92005459154528</v>
       </c>
     </row>
     <row r="3">
@@ -913,13 +913,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="n">
-        <v>349.47330624613</v>
+        <v>349.720883370764</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>14.4982886319771</v>
+        <v>14.5027428544022</v>
       </c>
     </row>
     <row r="4">
@@ -927,13 +927,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="n">
-        <v>938.289770536011</v>
+        <v>938.767897901277</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>38.9259942620102</v>
+        <v>38.9302156966017</v>
       </c>
     </row>
     <row r="5">
@@ -941,13 +941,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="n">
-        <v>149.135202127612</v>
+        <v>149.231287549219</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>6.18703965936541</v>
+        <v>6.18854375608785</v>
       </c>
     </row>
     <row r="6">
@@ -955,13 +955,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>39.5839861952144</v>
+        <v>39.6127955010333</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.64218567428501</v>
+        <v>1.64272199406074</v>
       </c>
     </row>
     <row r="7">
@@ -969,13 +969,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>69.7013431992987</v>
+        <v>69.7469431238433</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>2.89163771217537</v>
+        <v>2.89236939829335</v>
       </c>
     </row>
     <row r="8">
@@ -983,13 +983,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>55.4134973325136</v>
+        <v>55.4526506499863</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>2.29889054206689</v>
+        <v>2.29959253568265</v>
       </c>
     </row>
     <row r="9">
@@ -1003,7 +1003,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>4.78776247448213</v>
+        <v>4.78584295877849</v>
       </c>
     </row>
     <row r="10">
@@ -1017,7 +1017,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>9.28737638348715</v>
+        <v>9.28365287696217</v>
       </c>
     </row>
     <row r="11">
@@ -1031,7 +1031,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>6.31909371103845</v>
+        <v>6.31656025210522</v>
       </c>
     </row>
     <row r="12">
@@ -1045,7 +1045,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>2.76796867203186</v>
+        <v>2.76685893457903</v>
       </c>
     </row>
     <row r="13">
@@ -1059,7 +1059,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>8.41305945928415</v>
+        <v>8.40968648499107</v>
       </c>
     </row>
     <row r="14">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0611821951523281</v>
+        <v>0.0611576659103274</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>46.2689932192044</v>
+        <v>46.300427072075</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1117,7 +1117,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="n">
-        <v>349.47330624613</v>
+        <v>349.720883370764</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1128,7 +1128,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="n">
-        <v>942.846608952091</v>
+        <v>943.324322096976</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1139,7 +1139,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="n">
-        <v>149.135260270532</v>
+        <v>149.231345686853</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1150,7 +1150,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>39.5839861952144</v>
+        <v>39.6127955010333</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1161,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>69.7013431992987</v>
+        <v>69.7469431238433</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1172,7 +1172,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>55.4134973325136</v>
+        <v>55.4526506499863</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
